--- a/xlsx/阿特金森循环_intext.xlsx
+++ b/xlsx/阿特金森循环_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>阿特金森循环</t>
   </si>
@@ -29,13 +29,13 @@
     <t>热力学</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_阿特金森循环</t>
+    <t>政策_政策_混合动力车辆_阿特金森循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%AB%BE%E7%86%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>卡諾熱機</t>
+    <t>卡诺热机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%8A%9B%E5%AD%A6</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B9%B3%E8%A1%A1%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>非平衡熱力學</t>
+    <t>非平衡热力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>熱力學定律</t>
+    <t>热力学定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6%E7%AC%AC%E9%9B%B6%E5%AE%9A%E5%BE%8B</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>熱力學狀態</t>
+    <t>热力学状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B6%E6%80%81%E6%96%B9%E7%A8%8B</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%9A%9B%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>實際氣體</t>
+    <t>实际气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B4%A8%E7%8A%B6%E6%80%81</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E9%AB%94%E7%A9%8D</t>
   </si>
   <si>
-    <t>控制體積</t>
+    <t>控制体积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6%E8%BF%87%E7%A8%8B</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%84%93%E9%81%8E%E7%A8%8B</t>
   </si>
   <si>
-    <t>等焓過程</t>
+    <t>等焓过程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E9%9D%99%E6%80%81%E8%BF%87%E7%A8%8B</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>自由膨脹</t>
+    <t>自由膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E9%80%86%E8%BF%87%E7%A8%8B</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E6%80%A7%E8%B3%AA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>熱力學性質列表</t>
+    <t>热力学性质列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E5%9C%96</t>
   </si>
   <si>
-    <t>熱力學圖</t>
+    <t>热力学图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%90%AB%E5%8F%8A%E5%A4%96%E5%BB%B6%E6%80%A7%E8%B3%AA</t>
   </si>
   <si>
-    <t>內含及外延性質</t>
+    <t>内含及外延性质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B6%E6%80%81%E5%87%BD%E6%95%B0</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E7%A9%8D_(%E7%86%B1%E5%8A%9B%E5%AD%B8)</t>
   </si>
   <si>
-    <t>體積 (熱力學)</t>
+    <t>体积 (热力学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%8A%BF</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E6%95%B8</t>
   </si>
   <si>
-    <t>粒子數</t>
+    <t>粒子数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B0%A3%E9%87%8F</t>
   </si>
   <si>
-    <t>蒸氣量</t>
+    <t>蒸气量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E6%AF%94%E6%80%A7%E8%B4%A8</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E7%A8%8B%E5%87%BD%E6%95%B8</t>
   </si>
   <si>
-    <t>過程函數</t>
+    <t>过程函数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99%E6%80%A7%E8%B4%A8_(%E7%83%AD%E5%8A%9B%E5%AD%A6)</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>熱容量</t>
+    <t>热容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%8B%E7%BC%A9%E6%80%A7</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%AB%BE%E5%AE%9A%E7%90%86_(%E7%86%B1%E5%8A%9B%E5%AD%B8)</t>
   </si>
   <si>
-    <t>卡諾定理 (熱力學)</t>
+    <t>卡诺定理 (热力学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E4%BF%AE%E6%96%AF%E5%AE%9A%E7%90%86</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E6%A3%98%E8%BC%AA</t>
   </si>
   <si>
-    <t>布朗棘輪</t>
+    <t>布朗棘轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E6%96%AF%E9%9F%A6%E5%A6%96</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E8%91%97%E4%BD%9C</t>
   </si>
   <si>
-    <t>物理著作</t>
+    <t>物理着作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E4%BA%8E%E5%A4%9A%E7%9B%B8%E7%89%A9%E8%B4%A8%E5%B9%B3%E8%A1%A1</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-熱力學</t>
+    <t>Template talk-热力学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_Atkinson_(inventor)</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E9%87%8F%E8%BD%89%E6%8F%9B%E6%95%88%E7%8E%87</t>
   </si>
   <si>
-    <t>能量轉換效率</t>
+    <t>能量转换效率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%8E%87%E9%87%8D%E9%87%8F%E6%AF%94</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E9%80%9F</t>
   </si>
   <si>
-    <t>轉速</t>
+    <t>转速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AD%E5%8A%9B</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%AE%B9%E8%BF%87%E7%A8%8B</t>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>熱力學</t>
   </si>
 </sst>
 </file>
@@ -3783,7 +3780,7 @@
         <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
